--- a/Control descarga SIFERE.xlsx
+++ b/Control descarga SIFERE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos Uipath\Descarga-RETPER-SIFERE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB089DA-EB20-4A4F-95CB-4CED982E9714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE90970-959D-4C8C-874C-AE87FA227F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>SIFERE</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>SIRCAR PER</t>
+  </si>
+  <si>
+    <t>SIRTAC</t>
   </si>
 </sst>
 </file>
@@ -388,15 +391,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -411,6 +412,9 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
